--- a/500all/speech_level/speeches_CHRG-114hhrg20061.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20061.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. I will call to order the Subcommittee on Readiness of the House Armed Services Committee.    I want to welcome everybody and thank you for being here today with us for the Readiness hearing on the U.S. Transportation Command [TRANSCOM] fiscal year 2017 readiness posture.    This is the only hearing in front of this committee by TRANSCOM and it has been 2 years since we have had the opportunity for the Transportation Command to present its readiness posture.    In the past 3 months, the services testified on increased readiness risks due to reduced investments in installation infrastructure, training, and equipment. Today I look forward to hearing how the Transportation Command's budget request enables a readiness recovery plan and where we continue to take risk.    I would like to welcome all of our members and our distinguished Air Force expert. This morning we have with us General Darren McDew, U.S. Air Force, Commander, United States Transportation Command, distinguished VMI [Virginia Military Institute] graduate.    Thank you for testifying today. We look forward to your thoughts and insights on these important issues. The purpose of this hearing is to clarify Transportation Command's posture to address readiness priorities, mitigation strategies, and to gather more detail on the current and future impacts of these decisions on operations and training.    Once again, I want to thank our witness for participating in our hearing today, and I look forward to discussing these important topics.    And now I would like to turn to our ranking member, Madeleine Bordallo, for any remarks that she might have upon her return from Guam.    [The prepared statement of Mr. Wittman can be found in the Appendix on page 21.]</t>
   </si>
   <si>
     <t>400041</t>
   </si>
   <si>
-    <t>Madeleine Z. Bordallo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman, for calling this hearing today and, General McDew, I welcome you and your entourage.    I am glad that we are able to hold this meeting, and I thank you for being here and for your service to our Nation.    Transportation Command as a functional combatant command plays an integral role in the central planning and the execution for the movement of our forces and their equipment. As the only command with operational requirements on each of the seven continents, TRANSCOM is asked to carry out land, sea, and air mobility missions around the world. It enables our military to project force in a timely and an efficient manner in response to both planned and unforeseen contingency operations.    We have heard from several of the services and combatant commands [COCOMs] already this year about the funding unpredictability levied by sequestration and years of continuing resolutions [CRs]. So I hope that you help us better understand how these fiscal conditions have affected readiness within TRANSCOM, and where our committee in Congress, as a whole, can stop the damage and begin to repair our force.    I thank you again for being here today, General, and we look forward to hearing from you.    And I yield back.</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>400244</t>
   </si>
   <si>
-    <t>Frank A. LoBiondo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LoBiondo. Thank you, Mr. Chairman.    General, thanks to you and your team for the outstanding work and service to our country. As you can tell probably from some of the questions from the chairman and ranking member that the Maritime Security Program is something on our minds, very keen that many of us are concerned that if we don't pay attention to this program, not something that probably a lot of people in America know much about, probably don't care much about. But if the wrong thing happens and some conflict breaks out and we don't have the proper infrastructure, we are in pretty serious--pretty serious problems.    So you have talked a little bit about it, you have answered some of the chairman and the ranking member's questions, but is there anything else you can suggest that we can do to ensure the health of the Maritime Security Program while right now not a lot of people are paying a lot of attention to it?    General McDew. Congressman, I believe that MARAD, the MARAD administration probably summed up the Maritime Security Program and the interest in the fleet best when he refers to it as a three-legged stool. And there are three things that really can strengthen and underpin our maritime force.    One is the stipend, the MSP that we are talking about. One is cargo preference, and we have seen some things over the last few years that have decreased the amount of cargo preference some of these industries have had. And the other is a robust international trade.    The problem we have is, from my perspective, the only lever we have in the Department and inside of MARAD is the stipend. That is the only lever that we can actually control. And so right now that stipend of $3.1 million which we ought to look at increasing over time is keeping 60 ships of only 78 with us. And I am behind anything that further increases our ability to make sure that we have the capacity we need to go to war.    And I think that is a leg of the stool that we have got to continue to keep an eye on.</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
     <t>412409</t>
   </si>
   <si>
-    <t>Richard B. Nugent</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman, and, General, thank you for being here and your staff and to the Chief Master Sergeant, congrats. It is a good feeling when you know you are going to retire. This is my last year, too, so it is a good thing.    And I think you hit on it particularly, you know, we talk about the rebalance to the Pacific but right now what is going on in Europe and we are looking at, you know, prepositioning forces there but trying to surge people there. You know, without maritime lift capacity, my sons that are all in the Army are going to be kind of hard-pressed just because you can't put a Paladin or an Abrams--you can't carry very many on an aircraft. But you sure as heck can on a ship.    You mentioned 78 ships. What do you think the realistic--or what numbers should we really be striving to get to to be able to meet the surge command, you know, possibilities that we may have to face in the future?    General McDew. You are right, Congressman Nugent.    On the ability to provide that decisive force, your sons in the Army want ships to be able to do that. The 60 ships that we have in the Maritime Security Program provide us that ability to have capacity in the time of need.    What we owe is a continual look at what those numbers look like, and we work with MARAD who really runs that program for us to see what the industry will allow and what portion of the industry we can have in the program.    Will we need all the ships in the program? Maybe not. But we need enough in the program to move those critical pieces of equipment. There are some that believe that we can rely on nations around the world to help us. And maybe we can, but history has shown us that--and the law tells us--that we must be able to move those critical components with our own indigenous forces. And so that is what the 60 gives us and I am willing to continue to work with MARAD and the services to ensure that we have what--the right capacity going forward.</t>
   </si>
   <si>
@@ -157,9 +145,6 @@
     <t>412444</t>
   </si>
   <si>
-    <t>Vicky Hartzler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Okay, all right.    General McDew, I wanted to drill down a little bit about some of the comments that you made talking about capacity, we talk about the 78 ships, 60 of which are obligated to TRANSCOM in the efforts that they have going forward.    You spoke about the possibility if the need was there for the use of foreign ships. I want you to elaborate on that a little bit. Obviously, knowing that they would have to be manned by U.S. merchant mariners, citizens of the United States, and so I want to get your perspective on how MSP would work if you were to--I am assuming contract with foreign ships.    Give us your perspective, too, on the Jones Act. There is many times there is discussion about the Jones Act, whether it should stay in place or whether it should not. I think the Jones Act has a tremendous amount of utility, especially in situations as we face potentially with capacity within our sealift ability.    So give me your perspective there on foreign ships versus U.S.-flag ships, the Jones Act, and then how do you manage within that realm, again, merchant mariners with--to establish that capability?    General McDew. I may have been a little unclear----</t>
   </si>
   <si>
@@ -205,9 +190,6 @@
     <t>412453</t>
   </si>
   <si>
-    <t>Christopher P. Gibson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibson. Thank you, Mr. Chairman.    And General, thank you very much for your leadership. Congratulations and thank you for your service, sacrifices of your family, and I also see your hardworking staff behind you, and I appreciate them as well.    A couple of questions in terms of this budget. I'm interested to know the commitment from the command in terms of revitalizing the Global Response Force [GRF], and then if you could also talk to the European Reassurance Initiative, concerns you have with regard to your command's responsibilities thereof.    General McDew. I just have to scramble to write because I have no memory any more. First note, hardworking staff, they are more than hardworking, they are brilliant, and they underpin anything I am able to do. There are some great men and women at U.S. Transportation Command that underpin, I think, the power of this Nation and I always will take an opportunity to brag about them when I get a chance. So thank you.    Revitalizing the Global Response Force--it is something that concerns me because I have told my other combatant commander friends, whatever they do is what we do. And how they do it, how they plan for it, impacts what we can help them with.    If they go into a cloak-filled room to provide a Global Response Force but can't make sure it is transportation feasible, then we don't have a Global Response Force. Our ability to project an immediate force tonight and a decisive force tomorrow is underpinned in the cornfields of Illinois, in this country.    I think all of them understand that, and we are working very closely with each and every one of them to do it, including my friend at European Command [EUCOM]. That initiative is going to be transportation-heavy to be able to move back and forth the forces we will need to provide reassurance to our allies and we are ready to do it.    I think we will also provide some cargo capacity to keep capacity in our maritime fleet, which is also important to this Nation.</t>
   </si>
   <si>
@@ -227,9 +209,6 @@
   </si>
   <si>
     <t>412523</t>
-  </si>
-  <si>
-    <t>Scott H. Peters</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Peters. I want to thank you, General. I apologize. They scheduled two hearings at the same time for me so I am trying to run between both.    And what I would like to do, Mr. Chairman, if it is all right, I have a couple questions having to do with strategic ports and the use of them that I will submit for the record. And I appreciate, Mr. Chairman, your having this hearing.</t>
@@ -634,11 +613,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -658,13 +635,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -686,11 +661,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -712,11 +685,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -738,11 +709,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -764,11 +733,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -788,13 +755,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -814,13 +779,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -840,13 +803,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -866,13 +827,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -894,11 +853,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -918,13 +875,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -944,13 +899,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -972,11 +925,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -996,13 +947,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1022,13 +971,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1048,13 +995,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1074,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1100,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1126,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1152,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1178,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1204,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1230,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1256,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1282,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1310,11 +1237,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1334,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1362,11 +1285,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1388,11 +1309,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1414,11 +1333,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1440,11 +1357,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1466,11 +1381,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1490,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1516,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1544,11 +1453,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1568,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1594,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1620,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1646,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1674,11 +1573,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1698,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1724,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1750,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1776,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1804,11 +1693,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1830,11 +1717,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1854,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" t="s">
-        <v>71</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1882,11 +1765,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20061.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20061.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittman. I will call to order the Subcommittee on Readiness of the House Armed Services Committee.    I want to welcome everybody and thank you for being here today with us for the Readiness hearing on the U.S. Transportation Command [TRANSCOM] fiscal year 2017 readiness posture.    This is the only hearing in front of this committee by TRANSCOM and it has been 2 years since we have had the opportunity for the Transportation Command to present its readiness posture.    In the past 3 months, the services testified on increased readiness risks due to reduced investments in installation infrastructure, training, and equipment. Today I look forward to hearing how the Transportation Command's budget request enables a readiness recovery plan and where we continue to take risk.    I would like to welcome all of our members and our distinguished Air Force expert. This morning we have with us General Darren McDew, U.S. Air Force, Commander, United States Transportation Command, distinguished VMI [Virginia Military Institute] graduate.    Thank you for testifying today. We look forward to your thoughts and insights on these important issues. The purpose of this hearing is to clarify Transportation Command's posture to address readiness priorities, mitigation strategies, and to gather more detail on the current and future impacts of these decisions on operations and training.    Once again, I want to thank our witness for participating in our hearing today, and I look forward to discussing these important topics.    And now I would like to turn to our ranking member, Madeleine Bordallo, for any remarks that she might have upon her return from Guam.    [The prepared statement of Mr. Wittman can be found in the Appendix on page 21.]</t>
   </si>
   <si>
     <t>400041</t>
   </si>
   <si>
+    <t>Bordallo</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman, for calling this hearing today and, General McDew, I welcome you and your entourage.    I am glad that we are able to hold this meeting, and I thank you for being here and for your service to our Nation.    Transportation Command as a functional combatant command plays an integral role in the central planning and the execution for the movement of our forces and their equipment. As the only command with operational requirements on each of the seven continents, TRANSCOM is asked to carry out land, sea, and air mobility missions around the world. It enables our military to project force in a timely and an efficient manner in response to both planned and unforeseen contingency operations.    We have heard from several of the services and combatant commands [COCOMs] already this year about the funding unpredictability levied by sequestration and years of continuing resolutions [CRs]. So I hope that you help us better understand how these fiscal conditions have affected readiness within TRANSCOM, and where our committee in Congress, as a whole, can stop the damage and begin to repair our force.    I thank you again for being here today, General, and we look forward to hearing from you.    And I yield back.</t>
   </si>
   <si>
@@ -91,6 +106,12 @@
     <t>400244</t>
   </si>
   <si>
+    <t>LoBiondo</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LoBiondo. Thank you, Mr. Chairman.    General, thanks to you and your team for the outstanding work and service to our country. As you can tell probably from some of the questions from the chairman and ranking member that the Maritime Security Program is something on our minds, very keen that many of us are concerned that if we don't pay attention to this program, not something that probably a lot of people in America know much about, probably don't care much about. But if the wrong thing happens and some conflict breaks out and we don't have the proper infrastructure, we are in pretty serious--pretty serious problems.    So you have talked a little bit about it, you have answered some of the chairman and the ranking member's questions, but is there anything else you can suggest that we can do to ensure the health of the Maritime Security Program while right now not a lot of people are paying a lot of attention to it?    General McDew. Congressman, I believe that MARAD, the MARAD administration probably summed up the Maritime Security Program and the interest in the fleet best when he refers to it as a three-legged stool. And there are three things that really can strengthen and underpin our maritime force.    One is the stipend, the MSP that we are talking about. One is cargo preference, and we have seen some things over the last few years that have decreased the amount of cargo preference some of these industries have had. And the other is a robust international trade.    The problem we have is, from my perspective, the only lever we have in the Department and inside of MARAD is the stipend. That is the only lever that we can actually control. And so right now that stipend of $3.1 million which we ought to look at increasing over time is keeping 60 ships of only 78 with us. And I am behind anything that further increases our ability to make sure that we have the capacity we need to go to war.    And I think that is a leg of the stool that we have got to continue to keep an eye on.</t>
   </si>
   <si>
@@ -103,6 +124,12 @@
     <t>412409</t>
   </si>
   <si>
+    <t>Nugent</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman, and, General, thank you for being here and your staff and to the Chief Master Sergeant, congrats. It is a good feeling when you know you are going to retire. This is my last year, too, so it is a good thing.    And I think you hit on it particularly, you know, we talk about the rebalance to the Pacific but right now what is going on in Europe and we are looking at, you know, prepositioning forces there but trying to surge people there. You know, without maritime lift capacity, my sons that are all in the Army are going to be kind of hard-pressed just because you can't put a Paladin or an Abrams--you can't carry very many on an aircraft. But you sure as heck can on a ship.    You mentioned 78 ships. What do you think the realistic--or what numbers should we really be striving to get to to be able to meet the surge command, you know, possibilities that we may have to face in the future?    General McDew. You are right, Congressman Nugent.    On the ability to provide that decisive force, your sons in the Army want ships to be able to do that. The 60 ships that we have in the Maritime Security Program provide us that ability to have capacity in the time of need.    What we owe is a continual look at what those numbers look like, and we work with MARAD who really runs that program for us to see what the industry will allow and what portion of the industry we can have in the program.    Will we need all the ships in the program? Maybe not. But we need enough in the program to move those critical pieces of equipment. There are some that believe that we can rely on nations around the world to help us. And maybe we can, but history has shown us that--and the law tells us--that we must be able to move those critical components with our own indigenous forces. And so that is what the 60 gives us and I am willing to continue to work with MARAD and the services to ensure that we have what--the right capacity going forward.</t>
   </si>
   <si>
@@ -145,6 +172,12 @@
     <t>412444</t>
   </si>
   <si>
+    <t>Hartzler</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Okay, all right.    General McDew, I wanted to drill down a little bit about some of the comments that you made talking about capacity, we talk about the 78 ships, 60 of which are obligated to TRANSCOM in the efforts that they have going forward.    You spoke about the possibility if the need was there for the use of foreign ships. I want you to elaborate on that a little bit. Obviously, knowing that they would have to be manned by U.S. merchant mariners, citizens of the United States, and so I want to get your perspective on how MSP would work if you were to--I am assuming contract with foreign ships.    Give us your perspective, too, on the Jones Act. There is many times there is discussion about the Jones Act, whether it should stay in place or whether it should not. I think the Jones Act has a tremendous amount of utility, especially in situations as we face potentially with capacity within our sealift ability.    So give me your perspective there on foreign ships versus U.S.-flag ships, the Jones Act, and then how do you manage within that realm, again, merchant mariners with--to establish that capability?    General McDew. I may have been a little unclear----</t>
   </si>
   <si>
@@ -190,6 +223,12 @@
     <t>412453</t>
   </si>
   <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gibson. Thank you, Mr. Chairman.    And General, thank you very much for your leadership. Congratulations and thank you for your service, sacrifices of your family, and I also see your hardworking staff behind you, and I appreciate them as well.    A couple of questions in terms of this budget. I'm interested to know the commitment from the command in terms of revitalizing the Global Response Force [GRF], and then if you could also talk to the European Reassurance Initiative, concerns you have with regard to your command's responsibilities thereof.    General McDew. I just have to scramble to write because I have no memory any more. First note, hardworking staff, they are more than hardworking, they are brilliant, and they underpin anything I am able to do. There are some great men and women at U.S. Transportation Command that underpin, I think, the power of this Nation and I always will take an opportunity to brag about them when I get a chance. So thank you.    Revitalizing the Global Response Force--it is something that concerns me because I have told my other combatant commander friends, whatever they do is what we do. And how they do it, how they plan for it, impacts what we can help them with.    If they go into a cloak-filled room to provide a Global Response Force but can't make sure it is transportation feasible, then we don't have a Global Response Force. Our ability to project an immediate force tonight and a decisive force tomorrow is underpinned in the cornfields of Illinois, in this country.    I think all of them understand that, and we are working very closely with each and every one of them to do it, including my friend at European Command [EUCOM]. That initiative is going to be transportation-heavy to be able to move back and forth the forces we will need to provide reassurance to our allies and we are ready to do it.    I think we will also provide some cargo capacity to keep capacity in our maritime fleet, which is also important to this Nation.</t>
   </si>
   <si>
@@ -209,6 +248,12 @@
   </si>
   <si>
     <t>412523</t>
+  </si>
+  <si>
+    <t>Peters</t>
+  </si>
+  <si>
+    <t>Scott</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Peters. I want to thank you, General. I apologize. They scheduled two hearings at the same time for me so I am trying to run between both.    And what I would like to do, Mr. Chairman, if it is all right, I have a couple questions having to do with strategic ports and the use of them that I will submit for the record. And I appreciate, Mr. Chairman, your having this hearing.</t>
@@ -563,7 +608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +616,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,1181 +638,1429 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
       <c r="H24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G38" t="s">
+        <v>52</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G39" t="s">
+        <v>52</v>
+      </c>
       <c r="H39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>69</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G44" t="s">
+        <v>69</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G46" t="s">
+        <v>69</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G49" t="s">
+        <v>78</v>
+      </c>
       <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20061.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20061.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Wittman</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400041</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Bordallo</t>
   </si>
   <si>
@@ -104,6 +113,9 @@
   </si>
   <si>
     <t>400244</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>LoBiondo</t>
@@ -608,7 +620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,7 +628,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,1426 +653,1576 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
